--- a/excel/anime_info2018-01_2018-02.xlsx
+++ b/excel/anime_info2018-01_2018-02.xlsx
@@ -666,7 +666,7 @@
         <v>声优：阿部敦白井悠介大桥贤一郎江口拓也齐藤壮马小野贤章羽多野涉增田俊树佐藤拓也</v>
       </c>
       <c r="I9" t="str">
-        <v>简介：IDOLiSH7动画全集改编自万代南梦宫制作推出的音乐类手机游戏。游戏集合了音乐节奏、文字冒险AVG、卡游等��种游戏元素，在游戏中玩家将扮演事务所的萌妹经纪人，负责社内男性偶像组合IDOLiSH7，与7名新人偶像一起向着成为超级明星而努力拼搏！</v>
+        <v>简介：IDOLiSH7动画全集改编自万代南梦宫制作推出的音乐类手机游戏。游戏集合了音乐节奏、文字冒险AVG、卡游等多种游戏元素，在游戏中玩家将扮演事务所的萌妹经纪人，负责社内男性偶像组合IDOLiSH7，与7名新人偶像一起向着成为超级明星而努力拼搏！</v>
       </c>
       <c r="J9" t="str">
         <v>状态: 完结 </v>
@@ -849,13 +849,13 @@
         <v>热血冒险奇幻动作</v>
       </c>
       <c r="F15" t="str">
-        <v>日昇动画</v>
+        <v>日昇��画</v>
       </c>
       <c r="G15" t="str">
         <v>看点：羁绊，热血，笑点，吐槽点并存的完美收尾！</v>
       </c>
       <c r="H15" t="str">
-        <v>声优：阪口大助茶风林钉宫理惠甲斐田裕子立木文彦铃���健一南央美千叶进步高桥美佳子杉田智和石田彰小林优雪野五月折笠富美子中井和哉子安武人</v>
+        <v>声优：阪口大助茶风林钉宫理惠甲斐田裕子立木文彦铃村健一南央美千叶进步高桥美佳子杉田智和石田彰小林优雪野五月折笠富美子中井和哉子安武人</v>
       </c>
       <c r="I15" t="str">
         <v>简介：《银魂》动画开启最终章《银之魂篇》！作为最终章的《银之魂篇》和之前的《烙阳决战篇》《再见真选组篇》两个大长篇故事是联系在一起。剧情终于要开启地球和人类的生死存亡之战。</v>

--- a/excel/anime_info2018-01_2018-02.xlsx
+++ b/excel/anime_info2018-01_2018-02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Sheet" state="show" r:id="rId3"/>
+    <sheet sheetId="1" name="Sheet" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
